--- a/Data/EC/NIT-9013618858.xlsx
+++ b/Data/EC/NIT-9013618858.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD6A2CA-C573-4EBD-B12B-DEED606CE8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E4623C0-8489-4CF0-B2D8-C5EA3568CE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F2060385-EBAB-4806-BAE1-AE105BF11118}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{141D90D6-01F0-469C-81A3-07213BD8EC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,55 +65,55 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1102799537</t>
+  </si>
+  <si>
+    <t>JULIO GUSTAVO SILGADO LACAYO</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>9101392</t>
+  </si>
+  <si>
+    <t>ARBEY SAMIR BELLO LOZANO</t>
+  </si>
+  <si>
     <t>1049937385</t>
   </si>
   <si>
     <t>DIANA PATRICIA RIOS VILLERO</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>1102799537</t>
-  </si>
-  <si>
-    <t>JULIO GUSTAVO SILGADO LACAYO</t>
-  </si>
-  <si>
     <t>1049936487</t>
   </si>
   <si>
     <t>ENEIDIS ESALAS URBINA</t>
   </si>
   <si>
-    <t>9101392</t>
-  </si>
-  <si>
-    <t>ARBEY SAMIR BELLO LOZANO</t>
-  </si>
-  <si>
     <t>1049932362</t>
   </si>
   <si>
     <t>WILBERTO PEREZ GUTIERREZ</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3037F52D-8706-A032-905D-854A3D11C3DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF06EFC-DFB3-8846-10A0-0D058D13F60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A48803-D9AC-4A1A-BADF-255D8F62C1D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB736733-B866-43CA-BA18-80D6F4C6163F}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1056,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>44000</v>
+        <v>53333</v>
       </c>
       <c r="G16" s="18">
-        <v>1100000</v>
+        <v>2500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1070,13 +1070,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>100000</v>
@@ -1093,19 +1093,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>17600</v>
+        <v>100000</v>
       </c>
       <c r="G18" s="18">
-        <v>1100000</v>
+        <v>2500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1116,19 +1116,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="G19" s="18">
-        <v>3500000</v>
+        <v>2500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="G20" s="18">
-        <v>2600000</v>
+        <v>2500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1162,19 +1162,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="18">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="G21" s="18">
-        <v>3500000</v>
+        <v>2500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1185,19 +1185,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>44000</v>
+        <v>100000</v>
       </c>
       <c r="G22" s="18">
-        <v>1100000</v>
+        <v>2500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1208,19 +1208,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>100000</v>
+        <v>53333</v>
       </c>
       <c r="G23" s="18">
-        <v>2500000</v>
+        <v>4500000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1237,13 +1237,13 @@
         <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="G24" s="18">
-        <v>2600000</v>
+        <v>4500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1254,19 +1254,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
-        <v>44000</v>
+        <v>140000</v>
       </c>
       <c r="G25" s="18">
-        <v>1100000</v>
+        <v>4500000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1283,13 +1283,13 @@
         <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>60000</v>
+        <v>140000</v>
       </c>
       <c r="G26" s="18">
-        <v>2600000</v>
+        <v>4500000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1300,19 +1300,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="G27" s="18">
-        <v>2500000</v>
+        <v>4500000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1323,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>140000</v>
       </c>
       <c r="G28" s="18">
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1346,19 +1346,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
-        <v>44000</v>
+        <v>140000</v>
       </c>
       <c r="G29" s="18">
-        <v>1100000</v>
+        <v>4500000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1369,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>44000</v>
+        <v>23467</v>
       </c>
       <c r="G30" s="18">
         <v>1100000</v>
@@ -1392,19 +1392,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F31" s="18">
-        <v>100000</v>
+        <v>44000</v>
       </c>
       <c r="G31" s="18">
-        <v>2500000</v>
+        <v>1100000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1415,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
-        <v>60000</v>
+        <v>44000</v>
       </c>
       <c r="G32" s="18">
-        <v>2600000</v>
+        <v>1100000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1438,19 +1438,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
-        <v>140000</v>
+        <v>44000</v>
       </c>
       <c r="G33" s="18">
-        <v>3500000</v>
+        <v>1100000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1461,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>44000</v>
@@ -1484,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>44000</v>
@@ -1507,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F36" s="18">
         <v>44000</v>
@@ -1530,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>100000</v>
+        <v>23467</v>
       </c>
       <c r="G37" s="18">
-        <v>2500000</v>
+        <v>1400000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1553,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
-        <v>140000</v>
+        <v>44000</v>
       </c>
       <c r="G38" s="18">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1576,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>44000</v>
       </c>
       <c r="G39" s="18">
-        <v>1100000</v>
+        <v>1400000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1599,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
-        <v>60000</v>
+        <v>44000</v>
       </c>
       <c r="G40" s="18">
-        <v>2600000</v>
+        <v>1400000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1622,19 +1622,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>44000</v>
       </c>
       <c r="G41" s="18">
-        <v>1100000</v>
+        <v>1400000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1645,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F42" s="18">
-        <v>100000</v>
+        <v>44000</v>
       </c>
       <c r="G42" s="18">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1668,19 +1668,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F43" s="18">
-        <v>100000</v>
+        <v>17600</v>
       </c>
       <c r="G43" s="18">
-        <v>2500000</v>
+        <v>1400000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1691,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>44000</v>
+        <v>32000</v>
       </c>
       <c r="G44" s="18">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1714,19 +1714,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
         <v>60000</v>
       </c>
       <c r="G45" s="18">
-        <v>2600000</v>
+        <v>1500000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1737,19 +1737,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F46" s="18">
-        <v>23467</v>
+        <v>60000</v>
       </c>
       <c r="G46" s="18">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1760,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
-        <v>53333</v>
+        <v>60000</v>
       </c>
       <c r="G47" s="18">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1783,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
-        <v>53333</v>
+        <v>60000</v>
       </c>
       <c r="G48" s="18">
-        <v>3500000</v>
+        <v>1500000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1806,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
-        <v>23467</v>
+        <v>60000</v>
       </c>
       <c r="G49" s="18">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1829,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F50" s="24">
-        <v>32000</v>
+        <v>60000</v>
       </c>
       <c r="G50" s="24">
-        <v>2600000</v>
+        <v>1500000</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>

--- a/Data/EC/NIT-9013618858.xlsx
+++ b/Data/EC/NIT-9013618858.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E4623C0-8489-4CF0-B2D8-C5EA3568CE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{629A5B5F-DBAE-4CF1-BE61-E41B3E9C981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{141D90D6-01F0-469C-81A3-07213BD8EC05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6EE459A6-D7BB-4EE3-B0AE-E80159895CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,49 +71,49 @@
     <t>JULIO GUSTAVO SILGADO LACAYO</t>
   </si>
   <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>9101392</t>
+  </si>
+  <si>
+    <t>ARBEY SAMIR BELLO LOZANO</t>
+  </si>
+  <si>
+    <t>1049937385</t>
+  </si>
+  <si>
+    <t>DIANA PATRICIA RIOS VILLERO</t>
+  </si>
+  <si>
+    <t>1049936487</t>
+  </si>
+  <si>
+    <t>ENEIDIS ESALAS URBINA</t>
+  </si>
+  <si>
+    <t>1049932362</t>
+  </si>
+  <si>
+    <t>WILBERTO PEREZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
     <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>9101392</t>
-  </si>
-  <si>
-    <t>ARBEY SAMIR BELLO LOZANO</t>
-  </si>
-  <si>
-    <t>1049937385</t>
-  </si>
-  <si>
-    <t>DIANA PATRICIA RIOS VILLERO</t>
-  </si>
-  <si>
-    <t>1049936487</t>
-  </si>
-  <si>
-    <t>ENEIDIS ESALAS URBINA</t>
-  </si>
-  <si>
-    <t>1049932362</t>
-  </si>
-  <si>
-    <t>WILBERTO PEREZ GUTIERREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -212,7 +212,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +427,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +471,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF06EFC-DFB3-8846-10A0-0D058D13F60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B03CF79-5B68-0822-986B-75C5FDC02105}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB736733-B866-43CA-BA18-80D6F4C6163F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE119460-72D7-4BD6-9595-1CDCB10DF1F5}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1056,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>53333</v>
+        <v>100000</v>
       </c>
       <c r="G16" s="18">
         <v>2500000</v>
@@ -1070,19 +1070,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="G17" s="18">
-        <v>2500000</v>
+        <v>2500001</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1093,19 +1093,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>100000</v>
+        <v>44000</v>
       </c>
       <c r="G18" s="18">
-        <v>2500000</v>
+        <v>1100000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1116,19 +1116,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>100000</v>
+        <v>17600</v>
       </c>
       <c r="G19" s="18">
-        <v>2500000</v>
+        <v>1100000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>2500000</v>
+        <v>1500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>100000</v>
@@ -1185,19 +1185,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="G22" s="18">
-        <v>2500000</v>
+        <v>2500001</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1208,19 +1208,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>53333</v>
+        <v>44000</v>
       </c>
       <c r="G23" s="18">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1231,19 +1231,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>100000</v>
+        <v>44000</v>
       </c>
       <c r="G24" s="18">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1260,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>140000</v>
+        <v>60000</v>
       </c>
       <c r="G25" s="18">
-        <v>4500000</v>
+        <v>1500000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1277,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="G26" s="18">
-        <v>4500000</v>
+        <v>2500000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1300,19 +1300,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
         <v>140000</v>
       </c>
       <c r="G27" s="18">
-        <v>4500000</v>
+        <v>2500001</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1323,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>140000</v>
+        <v>44000</v>
       </c>
       <c r="G28" s="18">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1346,19 +1346,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>140000</v>
+        <v>44000</v>
       </c>
       <c r="G29" s="18">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1369,19 +1369,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F30" s="18">
-        <v>23467</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="18">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1392,19 +1392,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>44000</v>
+        <v>100000</v>
       </c>
       <c r="G31" s="18">
-        <v>1100000</v>
+        <v>2500000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1415,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>44000</v>
+        <v>140000</v>
       </c>
       <c r="G32" s="18">
-        <v>1100000</v>
+        <v>2500001</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1438,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
         <v>44000</v>
@@ -1461,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>44000</v>
@@ -1484,19 +1484,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>44000</v>
+        <v>60000</v>
       </c>
       <c r="G35" s="18">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1507,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>44000</v>
+        <v>100000</v>
       </c>
       <c r="G36" s="18">
-        <v>1100000</v>
+        <v>2500000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1530,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F37" s="18">
-        <v>23467</v>
+        <v>140000</v>
       </c>
       <c r="G37" s="18">
-        <v>1400000</v>
+        <v>2500001</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1553,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>44000</v>
       </c>
       <c r="G38" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1576,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>44000</v>
       </c>
       <c r="G39" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1599,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F40" s="18">
-        <v>44000</v>
+        <v>60000</v>
       </c>
       <c r="G40" s="18">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1622,19 +1622,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
-        <v>44000</v>
+        <v>100000</v>
       </c>
       <c r="G41" s="18">
-        <v>1400000</v>
+        <v>2500000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1645,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
-        <v>44000</v>
+        <v>100000</v>
       </c>
       <c r="G42" s="18">
-        <v>1400000</v>
+        <v>2500001</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1668,19 +1668,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>17600</v>
+        <v>44000</v>
       </c>
       <c r="G43" s="18">
-        <v>1400000</v>
+        <v>1100000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1691,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F44" s="18">
-        <v>32000</v>
+        <v>44000</v>
       </c>
       <c r="G44" s="18">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1714,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F45" s="18">
         <v>60000</v>
@@ -1737,19 +1737,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F46" s="18">
-        <v>60000</v>
+        <v>53333</v>
       </c>
       <c r="G46" s="18">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1760,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F47" s="18">
-        <v>60000</v>
+        <v>53333</v>
       </c>
       <c r="G47" s="18">
-        <v>1500000</v>
+        <v>2500001</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1783,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F48" s="18">
-        <v>60000</v>
+        <v>23467</v>
       </c>
       <c r="G48" s="18">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1806,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F49" s="18">
-        <v>60000</v>
+        <v>23467</v>
       </c>
       <c r="G49" s="18">
-        <v>1500000</v>
+        <v>1100000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1829,16 +1829,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D50" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F50" s="24">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="G50" s="24">
         <v>1500000</v>
